--- a/Stimuli/stim_info.xlsx
+++ b/Stimuli/stim_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>length</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>aspect_r</t>
+          <t>width</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>2.365789079022718</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>47.96134242355774</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -492,20 +492,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>2.298683618534076</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>56.84536969423094</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>3.366601168107679</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>43.61653456024921</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -536,20 +536,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C5" t="n">
-        <v>3.799901752161519</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>39.46613824099683</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with smaller ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
-        <v>1.745613237831942</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>46.88550590510076</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -580,20 +580,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
-        <v>1.368419856747913</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>52.54202362040303</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C8" t="n">
-        <v>2.123405252485048</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>47.25198775816979</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -624,20 +624,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>1.935107878727572</v>
+        <v>42</v>
       </c>
       <c r="D9" t="n">
-        <v>54.00795103267916</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented horizontally.</t>
         </is>
       </c>
     </row>
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
-        <v>1.682456763693952</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>45.75316020457579</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -668,20 +668,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
-        <v>1.273685145540929</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>48.01264081830318</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
-        <v>2.83739801167078</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>42.2040064690995</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>3.006097017506169</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>33.81602587639799</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>1.818437187556647</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>46.91119379056423</v>
+        <v>47</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -756,20 +756,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C15" t="n">
-        <v>1.47765578133497</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>52.64477516225691</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have longer width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>2.161062139305283</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
-        <v>42.41927629255483</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -800,20 +800,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>1.991593208957924</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>34.67710517021931</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C18" t="n">
-        <v>1.75848568616241</v>
+        <v>41</v>
       </c>
       <c r="D18" t="n">
-        <v>46.99476337541473</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C19" t="n">
-        <v>1.387728529243616</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>52.97905350165892</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -868,13 +868,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C20" t="n">
-        <v>2.791666646003076</v>
+        <v>37</v>
       </c>
       <c r="D20" t="n">
-        <v>42.13597987924626</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -888,20 +888,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C21" t="n">
-        <v>2.937499969004614</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
-        <v>33.54391951698505</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C22" t="n">
-        <v>1.5598563644598</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>44.83689215449861</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -932,20 +932,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0897845466897</v>
+        <v>43</v>
       </c>
       <c r="D23" t="n">
-        <v>44.34756861799443</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C24" t="n">
-        <v>2.994184299734973</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>42.3961072574641</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -976,20 +976,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
-        <v>3.24127644960246</v>
+        <v>43</v>
       </c>
       <c r="D25" t="n">
-        <v>34.58442902985639</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C26" t="n">
-        <v>2.241989131334682</v>
+        <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>42.94174081526046</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1020,20 +1020,20 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C27" t="n">
-        <v>2.112983697002023</v>
+        <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>36.76696326104184</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1044,13 +1044,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>1.974354145194733</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>47.54068741504816</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1064,20 +1064,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C29" t="n">
-        <v>1.711531217792099</v>
+        <v>41</v>
       </c>
       <c r="D29" t="n">
-        <v>55.16274966019265</v>
+        <v>41</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C30" t="n">
-        <v>2.581223582813228</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
-        <v>47.98984176998973</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1108,20 +1108,20 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C31" t="n">
-        <v>2.621835374219841</v>
+        <v>42</v>
       </c>
       <c r="D31" t="n">
-        <v>56.95936707995891</v>
+        <v>47</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented horizontally.</t>
         </is>
       </c>
     </row>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C32" t="n">
-        <v>2.830748545128322</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
-        <v>47.46370859126121</v>
+        <v>41</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1152,20 +1152,20 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C33" t="n">
-        <v>2.996122817692482</v>
+        <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>54.85483436504484</v>
+        <v>46</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1176,13 +1176,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C34" t="n">
-        <v>3.373210807264531</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>44.02910452298221</v>
+        <v>45</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1196,20 +1196,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C35" t="n">
-        <v>3.809816210896797</v>
+        <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>41.11641809192883</v>
+        <v>43</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with smaller ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C36" t="n">
-        <v>1.821789550874771</v>
+        <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>44.03655290498461</v>
+        <v>45</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1240,20 +1240,20 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C37" t="n">
-        <v>1.482684326312157</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>41.14621161993843</v>
+        <v>46</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have shorter length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>3.303995989494414</v>
+        <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>46.7347371374574</v>
+        <v>46</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1284,20 +1284,20 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>3.70599398424162</v>
+        <v>43</v>
       </c>
       <c r="D39" t="n">
-        <v>51.93894854982961</v>
+        <v>40</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with smaller ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>1.922445148686257</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>44.8767349418008</v>
+        <v>45</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1328,20 +1328,20 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C41" t="n">
-        <v>1.633667723029385</v>
+        <v>41</v>
       </c>
       <c r="D41" t="n">
-        <v>44.50693976720319</v>
+        <v>43</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C42" t="n">
-        <v>2.913932893956777</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>43.0973303140733</v>
+        <v>46</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1372,20 +1372,20 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>3.120899340935166</v>
+        <v>40</v>
       </c>
       <c r="D43" t="n">
-        <v>37.38932125629322</v>
+        <v>42</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C44" t="n">
-        <v>1.837879484628665</v>
+        <v>38</v>
       </c>
       <c r="D44" t="n">
-        <v>45.52602476166204</v>
+        <v>45</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1416,20 +1416,20 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C45" t="n">
-        <v>1.506819226942998</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>47.10409904664815</v>
+        <v>42</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1440,13 +1440,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C46" t="n">
-        <v>2.160700327599495</v>
+        <v>39</v>
       </c>
       <c r="D46" t="n">
-        <v>46.73683882009318</v>
+        <v>43</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1460,20 +1460,20 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C47" t="n">
-        <v>1.991050491399242</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n">
-        <v>51.94735528037273</v>
+        <v>42</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1484,13 +1484,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C48" t="n">
-        <v>1.597822812427727</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
-        <v>46.22961291703164</v>
+        <v>42</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1504,20 +1504,20 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C49" t="n">
-        <v>1.14673421864159</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>49.91845166812655</v>
+        <v>44</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1528,13 +1528,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C50" t="n">
-        <v>2.378546205595955</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>42.1996411037391</v>
+        <v>46</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1548,20 +1548,20 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C51" t="n">
-        <v>2.317819308393932</v>
+        <v>42</v>
       </c>
       <c r="D51" t="n">
-        <v>33.79856441495639</v>
+        <v>47</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented horizontally.</t>
         </is>
       </c>
     </row>
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C52" t="n">
-        <v>3.374555920932623</v>
+        <v>39</v>
       </c>
       <c r="D52" t="n">
-        <v>43.55688336153496</v>
+        <v>43</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1592,20 +1592,20 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C53" t="n">
-        <v>3.811833881398934</v>
+        <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>39.22753344613983</v>
+        <v>40</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with smaller ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C54" t="n">
-        <v>2.420964830581423</v>
+        <v>41</v>
       </c>
       <c r="D54" t="n">
-        <v>42.29454097084923</v>
+        <v>48</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1636,20 +1636,20 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C55" t="n">
-        <v>2.381447245872134</v>
+        <v>43</v>
       </c>
       <c r="D55" t="n">
-        <v>34.17816388339693</v>
+        <v>45</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1660,13 +1660,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C56" t="n">
-        <v>2.343934070181084</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
-        <v>47.37040644556095</v>
+        <v>42</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1680,20 +1680,20 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C57" t="n">
-        <v>2.265901105271626</v>
+        <v>43</v>
       </c>
       <c r="D57" t="n">
-        <v>54.48162578224379</v>
+        <v>44</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1704,13 +1704,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C58" t="n">
-        <v>2.301238367889745</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>43.33956049706193</v>
+        <v>45</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C59" t="n">
-        <v>2.201857551834618</v>
+        <v>41</v>
       </c>
       <c r="D59" t="n">
-        <v>38.35824198824773</v>
+        <v>43</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C60" t="n">
-        <v>1.519539161735031</v>
+        <v>44</v>
       </c>
       <c r="D60" t="n">
-        <v>44.64485031309221</v>
+        <v>44</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1768,20 +1768,20 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C61" t="n">
-        <v>1.029308742602547</v>
+        <v>43</v>
       </c>
       <c r="D61" t="n">
-        <v>43.57940125236882</v>
+        <v>44</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C62" t="n">
-        <v>2.47476613290715</v>
+        <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>45.24327312306387</v>
+        <v>46</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1812,20 +1812,20 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C63" t="n">
-        <v>2.462149199360726</v>
+        <v>42</v>
       </c>
       <c r="D63" t="n">
-        <v>45.97309249225546</v>
+        <v>44</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1836,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C64" t="n">
-        <v>3.117385717893407</v>
+        <v>39</v>
       </c>
       <c r="D64" t="n">
-        <v>42.64011373914781</v>
+        <v>49</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -1856,20 +1856,20 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>3.426078576840109</v>
+        <v>41</v>
       </c>
       <c r="D65" t="n">
-        <v>35.56045495659123</v>
+        <v>39</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1880,13 +1880,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C66" t="n">
-        <v>1.974145647006809</v>
+        <v>37</v>
       </c>
       <c r="D66" t="n">
-        <v>45.54703277699814</v>
+        <v>45</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -1900,20 +1900,20 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C67" t="n">
-        <v>1.711218470510213</v>
+        <v>42</v>
       </c>
       <c r="D67" t="n">
-        <v>47.18813110799255</v>
+        <v>43</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1924,13 +1924,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C68" t="n">
-        <v>2.201859353456756</v>
+        <v>41</v>
       </c>
       <c r="D68" t="n">
-        <v>42.15244793729289</v>
+        <v>43</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -1944,20 +1944,20 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>2.052789030185134</v>
+        <v>43</v>
       </c>
       <c r="D69" t="n">
-        <v>33.60979174917156</v>
+        <v>41</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C70" t="n">
-        <v>1.54576811588672</v>
+        <v>42</v>
       </c>
       <c r="D70" t="n">
-        <v>44.88230867997955</v>
+        <v>47</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -1988,20 +1988,20 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C71" t="n">
-        <v>1.068652173830081</v>
+        <v>41</v>
       </c>
       <c r="D71" t="n">
-        <v>44.5292347199182</v>
+        <v>43</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C72" t="n">
-        <v>3.229750217985544</v>
+        <v>39</v>
       </c>
       <c r="D72" t="n">
-        <v>42.97617068561404</v>
+        <v>45</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -2032,20 +2032,20 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C73" t="n">
-        <v>3.594625326978316</v>
+        <v>43</v>
       </c>
       <c r="D73" t="n">
-        <v>36.90468274245613</v>
+        <v>45</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with smaller ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2056,13 +2056,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C74" t="n">
-        <v>1.935910450110133</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
-        <v>46.40502839423911</v>
+        <v>42</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -2076,20 +2076,20 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>1.6538656751652</v>
+        <v>42</v>
       </c>
       <c r="D75" t="n">
-        <v>50.62011357695645</v>
+        <v>43</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C76" t="n">
-        <v>1.568415528700994</v>
+        <v>44</v>
       </c>
       <c r="D76" t="n">
-        <v>45.79660509608296</v>
+        <v>47</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -2120,20 +2120,20 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10262329305149</v>
+        <v>39</v>
       </c>
       <c r="D77" t="n">
-        <v>48.18642038433186</v>
+        <v>42</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2144,13 +2144,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C78" t="n">
-        <v>2.959459784568205</v>
+        <v>37</v>
       </c>
       <c r="D78" t="n">
-        <v>47.30862508082407</v>
+        <v>43</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -2164,20 +2164,20 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C79" t="n">
-        <v>3.189189676852307</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>54.2345003232963</v>
+        <v>42</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C80" t="n">
-        <v>1.657518194993769</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
-        <v>46.58490849795146</v>
+        <v>47</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -2208,20 +2208,20 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>1.236277292490653</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>51.33963399180585</v>
+        <v>40</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>2.847242877421826</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>43.78804430731809</v>
+        <v>45</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -2248,24 +2248,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>distractor41</t>
+          <t>distractor401</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C83" t="n">
-        <v>3.020864316132739</v>
+        <v>41</v>
       </c>
       <c r="D83" t="n">
-        <v>40.15217722927235</v>
+        <v>47</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented horizontally.</t>
         </is>
       </c>
     </row>
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C84" t="n">
-        <v>2.354693892793742</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>47.92516771595562</v>
+        <v>44</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -2292,24 +2292,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>distractor42</t>
+          <t>distractor402</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C85" t="n">
-        <v>2.282040839190613</v>
+        <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>56.70067086382247</v>
+        <v>43</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C86" t="n">
-        <v>3.230002862464132</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
-        <v>46.65989999476152</v>
+        <v>47</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -2336,24 +2336,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>distractor43</t>
+          <t>distractor403</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C87" t="n">
-        <v>3.595004293696199</v>
+        <v>41</v>
       </c>
       <c r="D87" t="n">
-        <v>51.63959997904606</v>
+        <v>41</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with smaller ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2364,13 +2364,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C88" t="n">
-        <v>2.557016735673322</v>
+        <v>39</v>
       </c>
       <c r="D88" t="n">
-        <v>45.14907241710639</v>
+        <v>47</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
@@ -2380,24 +2380,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>distractor44</t>
+          <t>distractor404</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C89" t="n">
-        <v>2.585525103509982</v>
+        <v>44</v>
       </c>
       <c r="D89" t="n">
-        <v>45.59628966842556</v>
+        <v>39</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2408,13 +2408,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C90" t="n">
-        <v>1.704388104153579</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>43.90070641892734</v>
+        <v>42</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -2424,24 +2424,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>distractor45</t>
+          <t>distractor405</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C91" t="n">
-        <v>1.306582156230369</v>
+        <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>40.60282567570934</v>
+        <v>44</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2452,13 +2452,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C92" t="n">
-        <v>2.5648685026465</v>
+        <v>39</v>
       </c>
       <c r="D92" t="n">
-        <v>42.10166419190043</v>
+        <v>45</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -2468,24 +2468,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>distractor46</t>
+          <t>distractor406</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C93" t="n">
-        <v>2.59730275396975</v>
+        <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>33.40665676760175</v>
+        <v>44</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have shorter length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C94" t="n">
-        <v>3.320886248949019</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
-        <v>43.30810327964645</v>
+        <v>45</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -2512,24 +2512,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>distractor47</t>
+          <t>distractor407</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C95" t="n">
-        <v>3.731329373423529</v>
+        <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>38.23241311858578</v>
+        <v>43</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with smaller ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2540,13 +2540,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C96" t="n">
-        <v>1.578151355152223</v>
+        <v>42</v>
       </c>
       <c r="D96" t="n">
-        <v>46.13442813495099</v>
+        <v>46</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -2556,24 +2556,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>distractor48</t>
+          <t>distractor408</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C97" t="n">
-        <v>1.117227032728334</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
-        <v>49.53771253980398</v>
+        <v>41</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have longer width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2584,13 +2584,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C98" t="n">
-        <v>2.714668962499001</v>
+        <v>39</v>
       </c>
       <c r="D98" t="n">
-        <v>42.0725996706074</v>
+        <v>46</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -2600,24 +2600,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>distractor49</t>
+          <t>distractor409</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C99" t="n">
-        <v>2.822003443748501</v>
+        <v>45</v>
       </c>
       <c r="D99" t="n">
-        <v>33.2903986824296</v>
+        <v>42</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2628,13 +2628,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C100" t="n">
-        <v>1.531093686396575</v>
+        <v>42</v>
       </c>
       <c r="D100" t="n">
-        <v>44.85059756272958</v>
+        <v>46</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -2644,24 +2644,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>distractor50</t>
+          <t>distractor410</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C101" t="n">
-        <v>1.046640529594863</v>
+        <v>42</v>
       </c>
       <c r="D101" t="n">
-        <v>44.40239025091833</v>
+        <v>41</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2672,13 +2672,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C102" t="n">
-        <v>2.241120715995315</v>
+        <v>39</v>
       </c>
       <c r="D102" t="n">
-        <v>47.89541737173769</v>
+        <v>45</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -2688,24 +2688,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>distractor51</t>
+          <t>distractor411</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C103" t="n">
-        <v>2.111681073992972</v>
+        <v>42</v>
       </c>
       <c r="D103" t="n">
-        <v>56.58166948695076</v>
+        <v>44</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2716,13 +2716,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C104" t="n">
-        <v>2.477464556282021</v>
+        <v>38</v>
       </c>
       <c r="D104" t="n">
-        <v>47.12709361299416</v>
+        <v>44</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
@@ -2732,24 +2732,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>distractor52</t>
+          <t>distractor412</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C105" t="n">
-        <v>2.466196834423032</v>
+        <v>43</v>
       </c>
       <c r="D105" t="n">
-        <v>53.50837445197664</v>
+        <v>42</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2760,13 +2760,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C106" t="n">
-        <v>3.248541840004282</v>
+        <v>39</v>
       </c>
       <c r="D106" t="n">
-        <v>45.2780827836461</v>
+        <v>45</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -2776,24 +2776,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>distractor53</t>
+          <t>distractor413</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C107" t="n">
-        <v>3.622812760006424</v>
+        <v>43</v>
       </c>
       <c r="D107" t="n">
-        <v>46.11233113458441</v>
+        <v>42</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with smaller ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2804,13 +2804,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C108" t="n">
-        <v>3.027424518329427</v>
+        <v>40</v>
       </c>
       <c r="D108" t="n">
-        <v>42.77281682758446</v>
+        <v>45</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
@@ -2820,24 +2820,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>distractor54</t>
+          <t>distractor414</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C109" t="n">
-        <v>3.291136777494141</v>
+        <v>42</v>
       </c>
       <c r="D109" t="n">
-        <v>36.09126731033786</v>
+        <v>42</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C110" t="n">
-        <v>1.866351731956343</v>
+        <v>38</v>
       </c>
       <c r="D110" t="n">
-        <v>46.74063778160095</v>
+        <v>44</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
@@ -2864,24 +2864,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>distractor55</t>
+          <t>distractor415</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C111" t="n">
-        <v>1.549527597934515</v>
+        <v>43</v>
       </c>
       <c r="D111" t="n">
-        <v>51.96255112640382</v>
+        <v>43</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C112" t="n">
-        <v>1.660777172134994</v>
+        <v>44</v>
       </c>
       <c r="D112" t="n">
-        <v>43.5963185693871</v>
+        <v>46</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -2908,24 +2908,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>distractor56</t>
+          <t>distractor416</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C113" t="n">
-        <v>1.241165758202491</v>
+        <v>41</v>
       </c>
       <c r="D113" t="n">
-        <v>39.3852742775484</v>
+        <v>47</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented horizontally.</t>
         </is>
       </c>
     </row>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C114" t="n">
-        <v>1.702265256776935</v>
+        <v>40</v>
       </c>
       <c r="D114" t="n">
-        <v>43.31796925439746</v>
+        <v>46</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -2952,24 +2952,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>distractor57</t>
+          <t>distractor417</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C115" t="n">
-        <v>1.303397885165402</v>
+        <v>43</v>
       </c>
       <c r="D115" t="n">
-        <v>38.27187701758984</v>
+        <v>42</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C116" t="n">
-        <v>3.109107357097125</v>
+        <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>42.77924029423436</v>
+        <v>45</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -2996,24 +2996,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>distractor58</t>
+          <t>distractor418</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C117" t="n">
-        <v>3.413661035645688</v>
+        <v>43</v>
       </c>
       <c r="D117" t="n">
-        <v>36.11696117693746</v>
+        <v>45</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3024,13 +3024,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C118" t="n">
-        <v>2.462151835494113</v>
+        <v>40</v>
       </c>
       <c r="D118" t="n">
-        <v>47.99769891312849</v>
+        <v>46</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -3040,24 +3040,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>distractor59</t>
+          <t>distractor419</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C119" t="n">
-        <v>2.44322775324117</v>
+        <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>56.99079565251395</v>
+        <v>44</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3068,13 +3068,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C120" t="n">
-        <v>1.854574934325282</v>
+        <v>40</v>
       </c>
       <c r="D120" t="n">
-        <v>45.10763932550084</v>
+        <v>46</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -3084,24 +3084,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>distractor60</t>
+          <t>distractor420</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C121" t="n">
-        <v>1.531862401487923</v>
+        <v>43</v>
       </c>
       <c r="D121" t="n">
-        <v>45.43055730200335</v>
+        <v>44</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3112,13 +3112,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C122" t="n">
-        <v>2.598338002463847</v>
+        <v>41</v>
       </c>
       <c r="D122" t="n">
-        <v>46.86609894373716</v>
+        <v>44</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -3128,24 +3128,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>distractor61</t>
+          <t>distractor421</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C123" t="n">
-        <v>2.64750700369577</v>
+        <v>42</v>
       </c>
       <c r="D123" t="n">
-        <v>52.46439577494863</v>
+        <v>45</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3156,13 +3156,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C124" t="n">
-        <v>3.232503142108315</v>
+        <v>38</v>
       </c>
       <c r="D124" t="n">
-        <v>45.17325014552681</v>
+        <v>43</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
@@ -3172,24 +3172,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>distractor62</t>
+          <t>distractor422</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C125" t="n">
-        <v>3.598754713162473</v>
+        <v>44</v>
       </c>
       <c r="D125" t="n">
-        <v>45.69300058210725</v>
+        <v>45</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with smaller ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3200,13 +3200,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C126" t="n">
-        <v>1.614366604621029</v>
+        <v>39</v>
       </c>
       <c r="D126" t="n">
-        <v>43.81035472909316</v>
+        <v>43</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -3216,24 +3216,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>distractor63</t>
+          <t>distractor423</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C127" t="n">
-        <v>1.171549906931543</v>
+        <v>43</v>
       </c>
       <c r="D127" t="n">
-        <v>40.24141891637265</v>
+        <v>44</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C128" t="n">
-        <v>1.918248873492809</v>
+        <v>41</v>
       </c>
       <c r="D128" t="n">
-        <v>44.8519665951625</v>
+        <v>44</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -3260,24 +3260,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>distractor64</t>
+          <t>distractor424</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C129" t="n">
-        <v>1.627373310239213</v>
+        <v>43</v>
       </c>
       <c r="D129" t="n">
-        <v>44.40786638065</v>
+        <v>43</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3288,13 +3288,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C130" t="n">
-        <v>1.78525056469529</v>
+        <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>46.22090842551967</v>
+        <v>45</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -3304,24 +3304,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>distractor65</t>
+          <t>distractor425</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C131" t="n">
-        <v>1.427875847042935</v>
+        <v>41</v>
       </c>
       <c r="D131" t="n">
-        <v>49.88363370207867</v>
+        <v>43</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3332,13 +3332,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C132" t="n">
-        <v>1.674956538825307</v>
+        <v>39</v>
       </c>
       <c r="D132" t="n">
-        <v>46.68800355911134</v>
+        <v>45</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -3348,24 +3348,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>distractor66</t>
+          <t>distractor426</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C133" t="n">
-        <v>1.262434808237961</v>
+        <v>39</v>
       </c>
       <c r="D133" t="n">
-        <v>51.75201423644536</v>
+        <v>44</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with larger ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3376,13 +3376,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C134" t="n">
-        <v>3.010095508367534</v>
+        <v>41</v>
       </c>
       <c r="D134" t="n">
-        <v>44.26310099539878</v>
+        <v>45</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -3392,24 +3392,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>distractor67</t>
+          <t>distractor427</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C135" t="n">
-        <v>3.265143262551301</v>
+        <v>42</v>
       </c>
       <c r="D135" t="n">
-        <v>42.05240398159513</v>
+        <v>43</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3420,13 +3420,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C136" t="n">
-        <v>2.387749950575039</v>
+        <v>39</v>
       </c>
       <c r="D136" t="n">
-        <v>42.75789843834926</v>
+        <v>43</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -3436,24 +3436,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>distractor68</t>
+          <t>distractor428</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C137" t="n">
-        <v>2.331624925862558</v>
+        <v>44</v>
       </c>
       <c r="D137" t="n">
-        <v>36.03159375339703</v>
+        <v>41</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3464,13 +3464,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C138" t="n">
-        <v>2.68310638413356</v>
+        <v>38</v>
       </c>
       <c r="D138" t="n">
-        <v>43.05780425099857</v>
+        <v>45</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -3480,24 +3480,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>distractor69</t>
+          <t>distractor429</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C139" t="n">
-        <v>2.77465957620034</v>
+        <v>42</v>
       </c>
       <c r="D139" t="n">
-        <v>37.23121700399426</v>
+        <v>43</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3508,13 +3508,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C140" t="n">
-        <v>3.445763003346192</v>
+        <v>39</v>
       </c>
       <c r="D140" t="n">
-        <v>44.10794580978783</v>
+        <v>47</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -3524,24 +3524,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>distractor70</t>
+          <t>distractor430</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C141" t="n">
-        <v>3.918644505019289</v>
+        <v>43</v>
       </c>
       <c r="D141" t="n">
-        <v>41.43178323915132</v>
+        <v>43</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with smaller ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C142" t="n">
-        <v>2.49901236437512</v>
+        <v>42</v>
       </c>
       <c r="D142" t="n">
-        <v>46.51718150999372</v>
+        <v>44</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -3568,24 +3568,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>distractor71</t>
+          <t>distractor431</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C143" t="n">
-        <v>2.49851854656268</v>
+        <v>41</v>
       </c>
       <c r="D143" t="n">
-        <v>51.06872603997489</v>
+        <v>42</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3596,13 +3596,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C144" t="n">
-        <v>2.44857040213641</v>
+        <v>40</v>
       </c>
       <c r="D144" t="n">
-        <v>43.55023054907902</v>
+        <v>47</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -3612,24 +3612,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>distractor72</t>
+          <t>distractor432</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C145" t="n">
-        <v>2.422855603204615</v>
+        <v>40</v>
       </c>
       <c r="D145" t="n">
-        <v>39.20092219631606</v>
+        <v>43</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3640,13 +3640,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C146" t="n">
-        <v>1.558459613554867</v>
+        <v>41</v>
       </c>
       <c r="D146" t="n">
-        <v>44.85206749205891</v>
+        <v>45</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -3656,24 +3656,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>distractor73</t>
+          <t>distractor433</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C147" t="n">
-        <v>1.087689420332301</v>
+        <v>41</v>
       </c>
       <c r="D147" t="n">
-        <v>44.40826996823562</v>
+        <v>44</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with larger ratio along two axes, and with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3684,13 +3684,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C148" t="n">
-        <v>2.787534472923543</v>
+        <v>40</v>
       </c>
       <c r="D148" t="n">
-        <v>47.25211078398301</v>
+        <v>44</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -3700,24 +3700,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>distractor74</t>
+          <t>distractor434</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C149" t="n">
-        <v>2.931301709385314</v>
+        <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>54.00844313593204</v>
+        <v>45</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3728,13 +3728,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C150" t="n">
-        <v>2.099170808784671</v>
+        <v>40</v>
       </c>
       <c r="D150" t="n">
-        <v>47.13440061525873</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -3744,24 +3744,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>distractor75</t>
+          <t>distractor435</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C151" t="n">
-        <v>1.898756213177006</v>
+        <v>41</v>
       </c>
       <c r="D151" t="n">
-        <v>53.53760246103492</v>
+        <v>42</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C152" t="n">
-        <v>2.759710964282648</v>
+        <v>38</v>
       </c>
       <c r="D152" t="n">
-        <v>42.11347580939396</v>
+        <v>45</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -3788,24 +3788,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>distractor76</t>
+          <t>distractor436</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C153" t="n">
-        <v>2.889566446423971</v>
+        <v>40</v>
       </c>
       <c r="D153" t="n">
-        <v>33.45390323757583</v>
+        <v>42</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C154" t="n">
-        <v>3.139828724591553</v>
+        <v>40</v>
       </c>
       <c r="D154" t="n">
-        <v>43.66765039135979</v>
+        <v>45</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -3832,24 +3832,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>distractor77</t>
+          <t>distractor437</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C155" t="n">
-        <v>3.45974308688733</v>
+        <v>43</v>
       </c>
       <c r="D155" t="n">
-        <v>39.67060156543918</v>
+        <v>42</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be smaller in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3860,13 +3860,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C156" t="n">
-        <v>2.563685285753182</v>
+        <v>41</v>
       </c>
       <c r="D156" t="n">
-        <v>43.09451763282066</v>
+        <v>45</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -3876,24 +3876,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>distractor78</t>
+          <t>distractor438</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C157" t="n">
-        <v>2.595527928629772</v>
+        <v>41</v>
       </c>
       <c r="D157" t="n">
-        <v>37.37807053128265</v>
+        <v>43</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with similar ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C158" t="n">
-        <v>3.116439433210128</v>
+        <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>47.35529638179115</v>
+        <v>48</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -3920,24 +3920,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>distractor79</t>
+          <t>distractor439</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C159" t="n">
-        <v>3.424659149815191</v>
+        <v>44</v>
       </c>
       <c r="D159" t="n">
-        <v>54.4211855271646</v>
+        <v>43</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be with similar size, with similar ratio along two axes, and more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>
@@ -3948,13 +3948,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C160" t="n">
-        <v>1.672821911679139</v>
+        <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>43.3427198990168</v>
+        <v>46</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -3964,24 +3964,3544 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>distractor80</t>
+          <t>distractor440</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C161" t="n">
-        <v>1.259232867518708</v>
+        <v>41</v>
       </c>
       <c r="D161" t="n">
-        <v>38.37087959606719</v>
+        <v>38</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>This is a distractor. Target should be larger in size, with larger ratio along two axes, and more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>target81</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>81</v>
+      </c>
+      <c r="C162" t="n">
+        <v>39</v>
+      </c>
+      <c r="D162" t="n">
+        <v>45</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>distractor801</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>78</v>
+      </c>
+      <c r="C163" t="n">
+        <v>41</v>
+      </c>
+      <c r="D163" t="n">
+        <v>46</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>target82</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>83</v>
+      </c>
+      <c r="C164" t="n">
+        <v>41</v>
+      </c>
+      <c r="D164" t="n">
+        <v>46</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>distractor802</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>76</v>
+      </c>
+      <c r="C165" t="n">
+        <v>43</v>
+      </c>
+      <c r="D165" t="n">
+        <v>42</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>target83</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>79</v>
+      </c>
+      <c r="C166" t="n">
+        <v>40</v>
+      </c>
+      <c r="D166" t="n">
+        <v>47</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>distractor803</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>81</v>
+      </c>
+      <c r="C167" t="n">
+        <v>42</v>
+      </c>
+      <c r="D167" t="n">
+        <v>42</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>target84</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>79</v>
+      </c>
+      <c r="C168" t="n">
+        <v>40</v>
+      </c>
+      <c r="D168" t="n">
+        <v>46</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>distractor804</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>77</v>
+      </c>
+      <c r="C169" t="n">
+        <v>43</v>
+      </c>
+      <c r="D169" t="n">
+        <v>45</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>target85</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>77</v>
+      </c>
+      <c r="C170" t="n">
+        <v>40</v>
+      </c>
+      <c r="D170" t="n">
+        <v>46</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>distractor805</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>78</v>
+      </c>
+      <c r="C171" t="n">
+        <v>43</v>
+      </c>
+      <c r="D171" t="n">
+        <v>44</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>target86</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>81</v>
+      </c>
+      <c r="C172" t="n">
+        <v>42</v>
+      </c>
+      <c r="D172" t="n">
+        <v>43</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>distractor806</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>77</v>
+      </c>
+      <c r="C173" t="n">
+        <v>42</v>
+      </c>
+      <c r="D173" t="n">
+        <v>41</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>target87</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>79</v>
+      </c>
+      <c r="C174" t="n">
+        <v>39</v>
+      </c>
+      <c r="D174" t="n">
+        <v>48</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>distractor807</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>78</v>
+      </c>
+      <c r="C175" t="n">
+        <v>40</v>
+      </c>
+      <c r="D175" t="n">
+        <v>42</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>target88</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>85</v>
+      </c>
+      <c r="C176" t="n">
+        <v>41</v>
+      </c>
+      <c r="D176" t="n">
+        <v>48</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>distractor808</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>79</v>
+      </c>
+      <c r="C177" t="n">
+        <v>41</v>
+      </c>
+      <c r="D177" t="n">
+        <v>42</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>target89</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>81</v>
+      </c>
+      <c r="C178" t="n">
+        <v>43</v>
+      </c>
+      <c r="D178" t="n">
+        <v>45</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>distractor809</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>79</v>
+      </c>
+      <c r="C179" t="n">
+        <v>42</v>
+      </c>
+      <c r="D179" t="n">
+        <v>45</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>target90</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>80</v>
+      </c>
+      <c r="C180" t="n">
+        <v>40</v>
+      </c>
+      <c r="D180" t="n">
+        <v>43</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>distractor810</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>77</v>
+      </c>
+      <c r="C181" t="n">
+        <v>41</v>
+      </c>
+      <c r="D181" t="n">
+        <v>43</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>target91</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>82</v>
+      </c>
+      <c r="C182" t="n">
+        <v>42</v>
+      </c>
+      <c r="D182" t="n">
+        <v>45</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>distractor811</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>79</v>
+      </c>
+      <c r="C183" t="n">
+        <v>39</v>
+      </c>
+      <c r="D183" t="n">
+        <v>46</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>target92</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>83</v>
+      </c>
+      <c r="C184" t="n">
+        <v>39</v>
+      </c>
+      <c r="D184" t="n">
+        <v>45</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>distractor812</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>79</v>
+      </c>
+      <c r="C185" t="n">
+        <v>44</v>
+      </c>
+      <c r="D185" t="n">
+        <v>42</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>target93</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>81</v>
+      </c>
+      <c r="C186" t="n">
+        <v>40</v>
+      </c>
+      <c r="D186" t="n">
+        <v>44</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>distractor813</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>76</v>
+      </c>
+      <c r="C187" t="n">
+        <v>41</v>
+      </c>
+      <c r="D187" t="n">
+        <v>41</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>target94</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>83</v>
+      </c>
+      <c r="C188" t="n">
+        <v>39</v>
+      </c>
+      <c r="D188" t="n">
+        <v>44</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>distractor814</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>79</v>
+      </c>
+      <c r="C189" t="n">
+        <v>41</v>
+      </c>
+      <c r="D189" t="n">
+        <v>42</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>target95</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>82</v>
+      </c>
+      <c r="C190" t="n">
+        <v>40</v>
+      </c>
+      <c r="D190" t="n">
+        <v>44</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>distractor815</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>78</v>
+      </c>
+      <c r="C191" t="n">
+        <v>44</v>
+      </c>
+      <c r="D191" t="n">
+        <v>42</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>target96</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>80</v>
+      </c>
+      <c r="C192" t="n">
+        <v>40</v>
+      </c>
+      <c r="D192" t="n">
+        <v>45</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>distractor816</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>78</v>
+      </c>
+      <c r="C193" t="n">
+        <v>42</v>
+      </c>
+      <c r="D193" t="n">
+        <v>45</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>target97</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>82</v>
+      </c>
+      <c r="C194" t="n">
+        <v>43</v>
+      </c>
+      <c r="D194" t="n">
+        <v>48</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>distractor817</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>78</v>
+      </c>
+      <c r="C195" t="n">
+        <v>43</v>
+      </c>
+      <c r="D195" t="n">
+        <v>39</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>target98</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>79</v>
+      </c>
+      <c r="C196" t="n">
+        <v>40</v>
+      </c>
+      <c r="D196" t="n">
+        <v>42</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>distractor818</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>74</v>
+      </c>
+      <c r="C197" t="n">
+        <v>43</v>
+      </c>
+      <c r="D197" t="n">
+        <v>42</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>target99</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>78</v>
+      </c>
+      <c r="C198" t="n">
+        <v>43</v>
+      </c>
+      <c r="D198" t="n">
+        <v>51</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>distractor819</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>76</v>
+      </c>
+      <c r="C199" t="n">
+        <v>41</v>
+      </c>
+      <c r="D199" t="n">
+        <v>43</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>target100</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>79</v>
+      </c>
+      <c r="C200" t="n">
+        <v>40</v>
+      </c>
+      <c r="D200" t="n">
+        <v>44</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>distractor820</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>79</v>
+      </c>
+      <c r="C201" t="n">
+        <v>40</v>
+      </c>
+      <c r="D201" t="n">
+        <v>45</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>target101</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>79</v>
+      </c>
+      <c r="C202" t="n">
+        <v>40</v>
+      </c>
+      <c r="D202" t="n">
+        <v>45</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>distractor821</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>77</v>
+      </c>
+      <c r="C203" t="n">
+        <v>42</v>
+      </c>
+      <c r="D203" t="n">
+        <v>42</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>target102</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>80</v>
+      </c>
+      <c r="C204" t="n">
+        <v>39</v>
+      </c>
+      <c r="D204" t="n">
+        <v>44</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>distractor822</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>82</v>
+      </c>
+      <c r="C205" t="n">
+        <v>43</v>
+      </c>
+      <c r="D205" t="n">
+        <v>40</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have shorter length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>target103</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>82</v>
+      </c>
+      <c r="C206" t="n">
+        <v>41</v>
+      </c>
+      <c r="D206" t="n">
+        <v>48</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>distractor823</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>77</v>
+      </c>
+      <c r="C207" t="n">
+        <v>41</v>
+      </c>
+      <c r="D207" t="n">
+        <v>44</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>target104</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>82</v>
+      </c>
+      <c r="C208" t="n">
+        <v>38</v>
+      </c>
+      <c r="D208" t="n">
+        <v>44</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>distractor824</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>79</v>
+      </c>
+      <c r="C209" t="n">
+        <v>40</v>
+      </c>
+      <c r="D209" t="n">
+        <v>42</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>target105</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>81</v>
+      </c>
+      <c r="C210" t="n">
+        <v>40</v>
+      </c>
+      <c r="D210" t="n">
+        <v>44</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>distractor825</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>77</v>
+      </c>
+      <c r="C211" t="n">
+        <v>42</v>
+      </c>
+      <c r="D211" t="n">
+        <v>43</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>target106</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>82</v>
+      </c>
+      <c r="C212" t="n">
+        <v>42</v>
+      </c>
+      <c r="D212" t="n">
+        <v>48</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>distractor826</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>76</v>
+      </c>
+      <c r="C213" t="n">
+        <v>41</v>
+      </c>
+      <c r="D213" t="n">
+        <v>40</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>target107</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>80</v>
+      </c>
+      <c r="C214" t="n">
+        <v>41</v>
+      </c>
+      <c r="D214" t="n">
+        <v>42</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>distractor827</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>80</v>
+      </c>
+      <c r="C215" t="n">
+        <v>46</v>
+      </c>
+      <c r="D215" t="n">
+        <v>44</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>target108</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>80</v>
+      </c>
+      <c r="C216" t="n">
+        <v>39</v>
+      </c>
+      <c r="D216" t="n">
+        <v>46</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>distractor828</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>76</v>
+      </c>
+      <c r="C217" t="n">
+        <v>41</v>
+      </c>
+      <c r="D217" t="n">
+        <v>41</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>target109</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>78</v>
+      </c>
+      <c r="C218" t="n">
+        <v>39</v>
+      </c>
+      <c r="D218" t="n">
+        <v>46</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>distractor829</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>79</v>
+      </c>
+      <c r="C219" t="n">
+        <v>40</v>
+      </c>
+      <c r="D219" t="n">
+        <v>46</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>target110</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>79</v>
+      </c>
+      <c r="C220" t="n">
+        <v>37</v>
+      </c>
+      <c r="D220" t="n">
+        <v>44</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>distractor830</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>78</v>
+      </c>
+      <c r="C221" t="n">
+        <v>43</v>
+      </c>
+      <c r="D221" t="n">
+        <v>42</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>target111</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>84</v>
+      </c>
+      <c r="C222" t="n">
+        <v>42</v>
+      </c>
+      <c r="D222" t="n">
+        <v>43</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>distractor831</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>72</v>
+      </c>
+      <c r="C223" t="n">
+        <v>42</v>
+      </c>
+      <c r="D223" t="n">
+        <v>42</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>target112</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>80</v>
+      </c>
+      <c r="C224" t="n">
+        <v>41</v>
+      </c>
+      <c r="D224" t="n">
+        <v>50</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>distractor832</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>75</v>
+      </c>
+      <c r="C225" t="n">
+        <v>40</v>
+      </c>
+      <c r="D225" t="n">
+        <v>40</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>target113</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>80</v>
+      </c>
+      <c r="C226" t="n">
+        <v>38</v>
+      </c>
+      <c r="D226" t="n">
+        <v>44</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>distractor833</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>77</v>
+      </c>
+      <c r="C227" t="n">
+        <v>40</v>
+      </c>
+      <c r="D227" t="n">
+        <v>45</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>target114</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>80</v>
+      </c>
+      <c r="C228" t="n">
+        <v>41</v>
+      </c>
+      <c r="D228" t="n">
+        <v>44</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>distractor834</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>76</v>
+      </c>
+      <c r="C229" t="n">
+        <v>41</v>
+      </c>
+      <c r="D229" t="n">
+        <v>41</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>target115</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>81</v>
+      </c>
+      <c r="C230" t="n">
+        <v>39</v>
+      </c>
+      <c r="D230" t="n">
+        <v>46</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>distractor835</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>80</v>
+      </c>
+      <c r="C231" t="n">
+        <v>46</v>
+      </c>
+      <c r="D231" t="n">
+        <v>42</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>target116</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>80</v>
+      </c>
+      <c r="C232" t="n">
+        <v>40</v>
+      </c>
+      <c r="D232" t="n">
+        <v>47</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>distractor836</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>75</v>
+      </c>
+      <c r="C233" t="n">
+        <v>41</v>
+      </c>
+      <c r="D233" t="n">
+        <v>43</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>target117</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>81</v>
+      </c>
+      <c r="C234" t="n">
+        <v>40</v>
+      </c>
+      <c r="D234" t="n">
+        <v>47</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>distractor837</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>77</v>
+      </c>
+      <c r="C235" t="n">
+        <v>43</v>
+      </c>
+      <c r="D235" t="n">
+        <v>45</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>target118</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>82</v>
+      </c>
+      <c r="C236" t="n">
+        <v>38</v>
+      </c>
+      <c r="D236" t="n">
+        <v>46</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>distractor838</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>77</v>
+      </c>
+      <c r="C237" t="n">
+        <v>41</v>
+      </c>
+      <c r="D237" t="n">
+        <v>43</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>target119</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>79</v>
+      </c>
+      <c r="C238" t="n">
+        <v>38</v>
+      </c>
+      <c r="D238" t="n">
+        <v>48</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>distractor839</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>77</v>
+      </c>
+      <c r="C239" t="n">
+        <v>42</v>
+      </c>
+      <c r="D239" t="n">
+        <v>44</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>target120</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>76</v>
+      </c>
+      <c r="C240" t="n">
+        <v>43</v>
+      </c>
+      <c r="D240" t="n">
+        <v>47</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>distractor840</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>76</v>
+      </c>
+      <c r="C241" t="n">
+        <v>41</v>
+      </c>
+      <c r="D241" t="n">
+        <v>44</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>target121</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>80</v>
+      </c>
+      <c r="C242" t="n">
+        <v>39</v>
+      </c>
+      <c r="D242" t="n">
+        <v>42</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>distractor1201</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>80</v>
+      </c>
+      <c r="C243" t="n">
+        <v>42</v>
+      </c>
+      <c r="D243" t="n">
+        <v>42</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>target122</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>78</v>
+      </c>
+      <c r="C244" t="n">
+        <v>43</v>
+      </c>
+      <c r="D244" t="n">
+        <v>44</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>distractor1202</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>81</v>
+      </c>
+      <c r="C245" t="n">
+        <v>41</v>
+      </c>
+      <c r="D245" t="n">
+        <v>44</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>target123</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>79</v>
+      </c>
+      <c r="C246" t="n">
+        <v>40</v>
+      </c>
+      <c r="D246" t="n">
+        <v>43</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>distractor1203</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>79</v>
+      </c>
+      <c r="C247" t="n">
+        <v>41</v>
+      </c>
+      <c r="D247" t="n">
+        <v>46</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>target124</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>81</v>
+      </c>
+      <c r="C248" t="n">
+        <v>41</v>
+      </c>
+      <c r="D248" t="n">
+        <v>43</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>distractor1204</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>79</v>
+      </c>
+      <c r="C249" t="n">
+        <v>41</v>
+      </c>
+      <c r="D249" t="n">
+        <v>41</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>target125</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>80</v>
+      </c>
+      <c r="C250" t="n">
+        <v>43</v>
+      </c>
+      <c r="D250" t="n">
+        <v>45</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>distractor1205</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>80</v>
+      </c>
+      <c r="C251" t="n">
+        <v>41</v>
+      </c>
+      <c r="D251" t="n">
+        <v>43</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>target126</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>80</v>
+      </c>
+      <c r="C252" t="n">
+        <v>42</v>
+      </c>
+      <c r="D252" t="n">
+        <v>46</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>distractor1206</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>77</v>
+      </c>
+      <c r="C253" t="n">
+        <v>42</v>
+      </c>
+      <c r="D253" t="n">
+        <v>44</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>target127</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>80</v>
+      </c>
+      <c r="C254" t="n">
+        <v>40</v>
+      </c>
+      <c r="D254" t="n">
+        <v>41</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>distractor1207</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>78</v>
+      </c>
+      <c r="C255" t="n">
+        <v>43</v>
+      </c>
+      <c r="D255" t="n">
+        <v>42</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>target128</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>79</v>
+      </c>
+      <c r="C256" t="n">
+        <v>40</v>
+      </c>
+      <c r="D256" t="n">
+        <v>45</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>distractor1208</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>80</v>
+      </c>
+      <c r="C257" t="n">
+        <v>43</v>
+      </c>
+      <c r="D257" t="n">
+        <v>44</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>target129</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>83</v>
+      </c>
+      <c r="C258" t="n">
+        <v>41</v>
+      </c>
+      <c r="D258" t="n">
+        <v>48</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>distractor1209</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>79</v>
+      </c>
+      <c r="C259" t="n">
+        <v>43</v>
+      </c>
+      <c r="D259" t="n">
+        <v>44</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>target130</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>85</v>
+      </c>
+      <c r="C260" t="n">
+        <v>43</v>
+      </c>
+      <c r="D260" t="n">
+        <v>47</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>distractor1210</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>81</v>
+      </c>
+      <c r="C261" t="n">
+        <v>42</v>
+      </c>
+      <c r="D261" t="n">
+        <v>46</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>target131</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>81</v>
+      </c>
+      <c r="C262" t="n">
+        <v>43</v>
+      </c>
+      <c r="D262" t="n">
+        <v>46</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>distractor1211</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>79</v>
+      </c>
+      <c r="C263" t="n">
+        <v>43</v>
+      </c>
+      <c r="D263" t="n">
+        <v>44</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>target132</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>82</v>
+      </c>
+      <c r="C264" t="n">
+        <v>41</v>
+      </c>
+      <c r="D264" t="n">
+        <v>44</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>distractor1212</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>78</v>
+      </c>
+      <c r="C265" t="n">
+        <v>43</v>
+      </c>
+      <c r="D265" t="n">
+        <v>43</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>target133</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>79</v>
+      </c>
+      <c r="C266" t="n">
+        <v>45</v>
+      </c>
+      <c r="D266" t="n">
+        <v>46</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>distractor1213</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>78</v>
+      </c>
+      <c r="C267" t="n">
+        <v>42</v>
+      </c>
+      <c r="D267" t="n">
+        <v>41</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>target134</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>78</v>
+      </c>
+      <c r="C268" t="n">
+        <v>41</v>
+      </c>
+      <c r="D268" t="n">
+        <v>46</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>distractor1214</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>79</v>
+      </c>
+      <c r="C269" t="n">
+        <v>39</v>
+      </c>
+      <c r="D269" t="n">
+        <v>41</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>target135</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>81</v>
+      </c>
+      <c r="C270" t="n">
+        <v>39</v>
+      </c>
+      <c r="D270" t="n">
+        <v>45</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>distractor1215</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>80</v>
+      </c>
+      <c r="C271" t="n">
+        <v>44</v>
+      </c>
+      <c r="D271" t="n">
+        <v>46</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>target136</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>82</v>
+      </c>
+      <c r="C272" t="n">
+        <v>40</v>
+      </c>
+      <c r="D272" t="n">
+        <v>44</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>distractor1216</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>77</v>
+      </c>
+      <c r="C273" t="n">
+        <v>40</v>
+      </c>
+      <c r="D273" t="n">
+        <v>44</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>target137</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>80</v>
+      </c>
+      <c r="C274" t="n">
+        <v>41</v>
+      </c>
+      <c r="D274" t="n">
+        <v>46</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>distractor1217</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>77</v>
+      </c>
+      <c r="C275" t="n">
+        <v>46</v>
+      </c>
+      <c r="D275" t="n">
+        <v>42</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>target138</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>82</v>
+      </c>
+      <c r="C276" t="n">
+        <v>43</v>
+      </c>
+      <c r="D276" t="n">
+        <v>43</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>distractor1218</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>75</v>
+      </c>
+      <c r="C277" t="n">
+        <v>43</v>
+      </c>
+      <c r="D277" t="n">
+        <v>43</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>target139</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>80</v>
+      </c>
+      <c r="C278" t="n">
+        <v>40</v>
+      </c>
+      <c r="D278" t="n">
+        <v>45</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>distractor1219</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>79</v>
+      </c>
+      <c r="C279" t="n">
+        <v>42</v>
+      </c>
+      <c r="D279" t="n">
+        <v>45</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>target140</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>81</v>
+      </c>
+      <c r="C280" t="n">
+        <v>40</v>
+      </c>
+      <c r="D280" t="n">
+        <v>47</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>distractor1220</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>75</v>
+      </c>
+      <c r="C281" t="n">
+        <v>41</v>
+      </c>
+      <c r="D281" t="n">
+        <v>43</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>target141</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>77</v>
+      </c>
+      <c r="C282" t="n">
+        <v>41</v>
+      </c>
+      <c r="D282" t="n">
+        <v>46</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>distractor1221</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>79</v>
+      </c>
+      <c r="C283" t="n">
+        <v>43</v>
+      </c>
+      <c r="D283" t="n">
+        <v>42</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>target142</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>82</v>
+      </c>
+      <c r="C284" t="n">
+        <v>39</v>
+      </c>
+      <c r="D284" t="n">
+        <v>45</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>distractor1222</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>78</v>
+      </c>
+      <c r="C285" t="n">
+        <v>42</v>
+      </c>
+      <c r="D285" t="n">
+        <v>43</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>target143</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>81</v>
+      </c>
+      <c r="C286" t="n">
+        <v>39</v>
+      </c>
+      <c r="D286" t="n">
+        <v>44</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+      <c r="F286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>distractor1223</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>76</v>
+      </c>
+      <c r="C287" t="n">
+        <v>41</v>
+      </c>
+      <c r="D287" t="n">
+        <v>45</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>target144</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>80</v>
+      </c>
+      <c r="C288" t="n">
+        <v>38</v>
+      </c>
+      <c r="D288" t="n">
+        <v>47</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>distractor1224</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>75</v>
+      </c>
+      <c r="C289" t="n">
+        <v>40</v>
+      </c>
+      <c r="D289" t="n">
+        <v>44</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>target145</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>78</v>
+      </c>
+      <c r="C290" t="n">
+        <v>39</v>
+      </c>
+      <c r="D290" t="n">
+        <v>45</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>distractor1225</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>80</v>
+      </c>
+      <c r="C291" t="n">
+        <v>40</v>
+      </c>
+      <c r="D291" t="n">
+        <v>44</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>target146</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>78</v>
+      </c>
+      <c r="C292" t="n">
+        <v>40</v>
+      </c>
+      <c r="D292" t="n">
+        <v>47</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>distractor1226</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>80</v>
+      </c>
+      <c r="C293" t="n">
+        <v>41</v>
+      </c>
+      <c r="D293" t="n">
+        <v>42</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>target147</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>79</v>
+      </c>
+      <c r="C294" t="n">
+        <v>40</v>
+      </c>
+      <c r="D294" t="n">
+        <v>44</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>distractor1227</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>82</v>
+      </c>
+      <c r="C295" t="n">
+        <v>42</v>
+      </c>
+      <c r="D295" t="n">
+        <v>44</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have shorter length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>target148</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>78</v>
+      </c>
+      <c r="C296" t="n">
+        <v>42</v>
+      </c>
+      <c r="D296" t="n">
+        <v>44</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="F296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>distractor1228</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>80</v>
+      </c>
+      <c r="C297" t="n">
+        <v>39</v>
+      </c>
+      <c r="D297" t="n">
+        <v>43</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>target149</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>83</v>
+      </c>
+      <c r="C298" t="n">
+        <v>39</v>
+      </c>
+      <c r="D298" t="n">
+        <v>44</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>distractor1229</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>78</v>
+      </c>
+      <c r="C299" t="n">
+        <v>40</v>
+      </c>
+      <c r="D299" t="n">
+        <v>45</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>target150</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>79</v>
+      </c>
+      <c r="C300" t="n">
+        <v>40</v>
+      </c>
+      <c r="D300" t="n">
+        <v>46</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>distractor1230</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>76</v>
+      </c>
+      <c r="C301" t="n">
+        <v>43</v>
+      </c>
+      <c r="D301" t="n">
+        <v>45</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>target151</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>78</v>
+      </c>
+      <c r="C302" t="n">
+        <v>40</v>
+      </c>
+      <c r="D302" t="n">
+        <v>46</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>distractor1231</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>80</v>
+      </c>
+      <c r="C303" t="n">
+        <v>41</v>
+      </c>
+      <c r="D303" t="n">
+        <v>45</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>target152</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>83</v>
+      </c>
+      <c r="C304" t="n">
+        <v>41</v>
+      </c>
+      <c r="D304" t="n">
+        <v>45</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>distractor1232</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>80</v>
+      </c>
+      <c r="C305" t="n">
+        <v>42</v>
+      </c>
+      <c r="D305" t="n">
+        <v>42</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>target153</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>81</v>
+      </c>
+      <c r="C306" t="n">
+        <v>39</v>
+      </c>
+      <c r="D306" t="n">
+        <v>43</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1</v>
+      </c>
+      <c r="F306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>distractor1233</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>78</v>
+      </c>
+      <c r="C307" t="n">
+        <v>44</v>
+      </c>
+      <c r="D307" t="n">
+        <v>44</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>target154</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>82</v>
+      </c>
+      <c r="C308" t="n">
+        <v>42</v>
+      </c>
+      <c r="D308" t="n">
+        <v>46</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
+      <c r="F308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>distractor1234</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>78</v>
+      </c>
+      <c r="C309" t="n">
+        <v>43</v>
+      </c>
+      <c r="D309" t="n">
+        <v>43</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>target155</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>83</v>
+      </c>
+      <c r="C310" t="n">
+        <v>42</v>
+      </c>
+      <c r="D310" t="n">
+        <v>46</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>distractor1235</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>80</v>
+      </c>
+      <c r="C311" t="n">
+        <v>39</v>
+      </c>
+      <c r="D311" t="n">
+        <v>43</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>target156</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>81</v>
+      </c>
+      <c r="C312" t="n">
+        <v>39</v>
+      </c>
+      <c r="D312" t="n">
+        <v>47</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+      <c r="F312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>distractor1236</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>77</v>
+      </c>
+      <c r="C313" t="n">
+        <v>42</v>
+      </c>
+      <c r="D313" t="n">
+        <v>44</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>target157</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>77</v>
+      </c>
+      <c r="C314" t="n">
+        <v>40</v>
+      </c>
+      <c r="D314" t="n">
+        <v>44</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>distractor1237</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>76</v>
+      </c>
+      <c r="C315" t="n">
+        <v>44</v>
+      </c>
+      <c r="D315" t="n">
+        <v>43</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>target158</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>79</v>
+      </c>
+      <c r="C316" t="n">
+        <v>39</v>
+      </c>
+      <c r="D316" t="n">
+        <v>43</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>distractor1238</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>76</v>
+      </c>
+      <c r="C317" t="n">
+        <v>40</v>
+      </c>
+      <c r="D317" t="n">
+        <v>44</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>target159</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>79</v>
+      </c>
+      <c r="C318" t="n">
+        <v>39</v>
+      </c>
+      <c r="D318" t="n">
+        <v>46</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>distractor1239</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>80</v>
+      </c>
+      <c r="C319" t="n">
+        <v>44</v>
+      </c>
+      <c r="D319" t="n">
+        <v>41</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>target160</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>79</v>
+      </c>
+      <c r="C320" t="n">
+        <v>40</v>
+      </c>
+      <c r="D320" t="n">
+        <v>48</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+      <c r="F320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>distractor1240</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>78</v>
+      </c>
+      <c r="C321" t="n">
+        <v>43</v>
+      </c>
+      <c r="D321" t="n">
+        <v>43</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
         </is>
       </c>
     </row>

--- a/Stimuli/stim_info.xlsx
+++ b/Stimuli/stim_info.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -492,20 +492,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>41</v>
@@ -536,20 +536,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -580,20 +580,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
         <v>43</v>
@@ -624,20 +624,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
         <v>42</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -651,10 +651,10 @@
         <v>79</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -668,20 +668,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have shorter length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" t="n">
         <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="n">
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="n">
         <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -756,20 +756,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have longer width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -783,10 +783,10 @@
         <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -803,17 +803,17 @@
         <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -868,13 +868,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -888,20 +888,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="n">
         <v>47</v>
@@ -932,20 +932,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -976,20 +976,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="n">
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1020,20 +1020,20 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1047,10 +1047,10 @@
         <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1064,20 +1064,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
         <v>45</v>
@@ -1108,20 +1108,20 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1135,10 +1135,10 @@
         <v>81</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1152,20 +1152,20 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C33" t="n">
         <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more horizontally.</t>
         </is>
       </c>
     </row>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" t="n">
         <v>45</v>
@@ -1196,20 +1196,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" t="n">
         <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1240,20 +1240,20 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" t="n">
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have shorter length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1284,20 +1284,20 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1328,20 +1328,20 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1372,20 +1372,20 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" t="n">
         <v>40</v>
       </c>
       <c r="D43" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C44" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1416,20 +1416,20 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1440,13 +1440,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C46" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1460,20 +1460,20 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1484,13 +1484,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D48" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1504,20 +1504,20 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more horizontally.</t>
         </is>
       </c>
     </row>
@@ -1528,13 +1528,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1548,20 +1548,20 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1598,14 +1598,14 @@
         <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C54" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1636,20 +1636,20 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C55" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1660,13 +1660,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" t="n">
         <v>38</v>
       </c>
       <c r="D56" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1680,10 +1680,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
         <v>44</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1707,10 +1707,10 @@
         <v>82</v>
       </c>
       <c r="C58" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C60" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D60" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C61" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D61" t="n">
         <v>44</v>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C62" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D62" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1812,20 +1812,20 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" t="n">
         <v>42</v>
       </c>
       <c r="D63" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1836,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -1856,20 +1856,20 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C65" t="n">
         <v>41</v>
       </c>
       <c r="D65" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1880,13 +1880,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D66" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C67" t="n">
         <v>42</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1924,13 +1924,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68" t="n">
         <v>41</v>
       </c>
       <c r="D68" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -1944,20 +1944,20 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C69" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -1988,20 +1988,20 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" t="n">
         <v>41</v>
       </c>
       <c r="D71" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -2032,20 +2032,20 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C73" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2056,13 +2056,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -2076,20 +2076,20 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D75" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C76" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -2120,20 +2120,20 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C77" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D77" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2144,13 +2144,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -2164,20 +2164,20 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D79" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -2208,20 +2208,20 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D82" t="n">
         <v>45</v>
@@ -2255,17 +2255,17 @@
         <v>75</v>
       </c>
       <c r="C83" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D83" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -2296,20 +2296,20 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" t="n">
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2340,20 +2340,20 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2364,13 +2364,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
@@ -2387,17 +2387,17 @@
         <v>77</v>
       </c>
       <c r="C89" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D89" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2408,13 +2408,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C90" t="n">
         <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -2431,17 +2431,17 @@
         <v>78</v>
       </c>
       <c r="C91" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D91" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
         <v>79</v>
       </c>
       <c r="C92" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D92" t="n">
         <v>45</v>
@@ -2472,20 +2472,20 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C93" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D93" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have shorter length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D94" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -2519,17 +2519,17 @@
         <v>79</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D95" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2540,13 +2540,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C96" t="n">
         <v>42</v>
       </c>
       <c r="D96" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -2563,17 +2563,17 @@
         <v>80</v>
       </c>
       <c r="C97" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D97" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have longer width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2584,13 +2584,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C98" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D98" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C99" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D99" t="n">
         <v>42</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2628,13 +2628,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C100" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -2648,10 +2648,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C101" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D101" t="n">
         <v>41</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2672,10 +2672,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C102" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D102" t="n">
         <v>45</v>
@@ -2692,20 +2692,20 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D103" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2716,13 +2716,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C104" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D104" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
@@ -2739,17 +2739,17 @@
         <v>77</v>
       </c>
       <c r="C105" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D105" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2760,13 +2760,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C106" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -2783,17 +2783,17 @@
         <v>75</v>
       </c>
       <c r="C107" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D107" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D108" t="n">
         <v>45</v>
@@ -2824,20 +2824,20 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C109" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D109" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C110" t="n">
         <v>38</v>
       </c>
       <c r="D110" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
@@ -2868,20 +2868,20 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C111" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D111" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more horizontally.</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
         <v>81</v>
       </c>
       <c r="C112" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D112" t="n">
         <v>46</v>
@@ -2912,20 +2912,20 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C113" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D113" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented horizontally.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D114" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="C115" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D115" t="n">
         <v>42</v>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C116" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D116" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -3000,20 +3000,20 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C117" t="n">
         <v>43</v>
       </c>
       <c r="D117" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3024,13 +3024,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D118" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -3044,20 +3044,20 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C119" t="n">
+        <v>43</v>
+      </c>
+      <c r="D119" t="n">
         <v>40</v>
       </c>
-      <c r="D119" t="n">
-        <v>44</v>
-      </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D120" t="n">
         <v>46</v>
@@ -3088,20 +3088,20 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C121" t="n">
         <v>43</v>
       </c>
       <c r="D121" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3112,13 +3112,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C122" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D122" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C123" t="n">
         <v>42</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3156,13 +3156,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C124" t="n">
         <v>38</v>
       </c>
       <c r="D124" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C125" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D125" t="n">
         <v>45</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3200,13 +3200,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C126" t="n">
         <v>39</v>
       </c>
       <c r="D126" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -3220,20 +3220,20 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C127" t="n">
         <v>43</v>
       </c>
       <c r="D127" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -3264,20 +3264,20 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C129" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D129" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3288,13 +3288,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C130" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D130" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -3308,20 +3308,20 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C131" t="n">
         <v>41</v>
       </c>
       <c r="D131" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3332,13 +3332,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C132" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D132" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -3352,20 +3352,20 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C133" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D133" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3376,13 +3376,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C134" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D134" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -3399,17 +3399,17 @@
         <v>79</v>
       </c>
       <c r="C135" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D135" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3420,13 +3420,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C136" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -3440,20 +3440,20 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C137" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D137" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more horizontally.</t>
         </is>
       </c>
     </row>
@@ -3464,13 +3464,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C138" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -3487,17 +3487,17 @@
         <v>77</v>
       </c>
       <c r="C139" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D139" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3508,13 +3508,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C140" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -3531,17 +3531,17 @@
         <v>79</v>
       </c>
       <c r="C141" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D141" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C142" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D142" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C143" t="n">
         <v>41</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3596,13 +3596,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C144" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D144" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -3616,20 +3616,20 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C145" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D145" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
         <v>41</v>
       </c>
       <c r="D146" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -3663,17 +3663,17 @@
         <v>80</v>
       </c>
       <c r="C147" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D147" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C148" t="n">
         <v>40</v>
@@ -3704,20 +3704,20 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C149" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D149" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3728,13 +3728,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C150" t="n">
         <v>40</v>
       </c>
       <c r="D150" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C151" t="n">
         <v>41</v>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C152" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D152" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C153" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D153" t="n">
         <v>42</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C154" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D154" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -3836,20 +3836,20 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C155" t="n">
         <v>43</v>
       </c>
       <c r="D155" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3860,13 +3860,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C156" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D156" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -3880,10 +3880,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C157" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D157" t="n">
         <v>43</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C158" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D158" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -3924,20 +3924,20 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C159" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D159" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have shorter length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -3948,13 +3948,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C160" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D160" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -3968,20 +3968,20 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C161" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D161" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C162" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D162" t="n">
         <v>45</v>
@@ -4012,20 +4012,20 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C163" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D163" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4036,13 +4036,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C164" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D164" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4056,20 +4056,20 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C165" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D165" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -4083,10 +4083,10 @@
         <v>79</v>
       </c>
       <c r="C166" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D166" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -4100,20 +4100,20 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C167" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C168" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -4144,20 +4144,20 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C169" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D169" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C170" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -4188,20 +4188,20 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C171" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D171" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="C172" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D172" t="n">
         <v>43</v>
@@ -4235,17 +4235,17 @@
         <v>77</v>
       </c>
       <c r="C173" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D173" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4256,13 +4256,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C174" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D174" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -4279,17 +4279,17 @@
         <v>78</v>
       </c>
       <c r="C175" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4300,13 +4300,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C176" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D176" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -4320,20 +4320,20 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C177" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D177" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4344,13 +4344,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C178" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D178" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C179" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D179" t="n">
         <v>45</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -4388,13 +4388,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C180" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D180" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -4408,20 +4408,20 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C181" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D181" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4435,10 +4435,10 @@
         <v>82</v>
       </c>
       <c r="C182" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D182" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4452,20 +4452,20 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C183" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D183" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4476,13 +4476,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C184" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -4496,20 +4496,20 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C185" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D185" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -4520,13 +4520,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C186" t="n">
         <v>40</v>
       </c>
       <c r="D186" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -4540,20 +4540,20 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C187" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D187" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4564,13 +4564,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C188" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D188" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -4584,20 +4584,20 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C189" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D189" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C190" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D190" t="n">
         <v>44</v>
@@ -4628,20 +4628,20 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C191" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D191" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -4652,10 +4652,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C192" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D192" t="n">
         <v>45</v>
@@ -4672,20 +4672,20 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C193" t="n">
         <v>42</v>
       </c>
       <c r="D193" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -4696,13 +4696,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C194" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D194" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -4716,20 +4716,20 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C195" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D195" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4743,10 +4743,10 @@
         <v>79</v>
       </c>
       <c r="C196" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D196" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -4760,20 +4760,20 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C197" t="n">
         <v>43</v>
       </c>
       <c r="D197" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4784,13 +4784,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C198" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D198" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
@@ -4810,14 +4810,14 @@
         <v>41</v>
       </c>
       <c r="D199" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4828,13 +4828,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C200" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D200" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -4848,20 +4848,20 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C201" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D201" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C202" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -4892,20 +4892,20 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C203" t="n">
         <v>42</v>
       </c>
       <c r="D203" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4916,13 +4916,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C204" t="n">
         <v>39</v>
       </c>
       <c r="D204" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -4936,20 +4936,20 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C205" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D205" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have shorter length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -4960,13 +4960,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C206" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D206" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C207" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D207" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C208" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D208" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
@@ -5024,20 +5024,20 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C209" t="n">
         <v>40</v>
       </c>
       <c r="D209" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -5048,13 +5048,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C210" t="n">
         <v>40</v>
       </c>
       <c r="D210" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C212" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D212" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5112,20 +5112,20 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C213" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D213" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
         <v>80</v>
       </c>
       <c r="C214" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D214" t="n">
         <v>42</v>
@@ -5156,20 +5156,20 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C215" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D215" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -5180,13 +5180,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C216" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D216" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -5200,20 +5200,20 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C217" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D217" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5224,13 +5224,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C218" t="n">
         <v>39</v>
       </c>
       <c r="D218" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C219" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D219" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have larger width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5268,13 +5268,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C220" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D220" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5288,20 +5288,20 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C221" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D221" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5312,13 +5312,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C222" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D222" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -5332,20 +5332,20 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C223" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D223" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5356,13 +5356,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C224" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D224" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -5376,20 +5376,20 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C225" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D225" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have larger width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5400,10 +5400,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C226" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D226" t="n">
         <v>44</v>
@@ -5423,17 +5423,17 @@
         <v>77</v>
       </c>
       <c r="C227" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D227" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C228" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D228" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -5464,20 +5464,20 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C229" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D229" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5488,13 +5488,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C230" t="n">
         <v>39</v>
       </c>
       <c r="D230" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5508,20 +5508,20 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C231" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D231" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C232" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D232" t="n">
         <v>47</v>
@@ -5552,20 +5552,20 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C233" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D233" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -5579,10 +5579,10 @@
         <v>81</v>
       </c>
       <c r="C234" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D234" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E234" t="n">
         <v>1</v>
@@ -5596,20 +5596,20 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C235" t="n">
         <v>43</v>
       </c>
       <c r="D235" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -5620,13 +5620,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C236" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D236" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E236" t="n">
         <v>1</v>
@@ -5640,20 +5640,20 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C237" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D237" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C238" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D238" t="n">
         <v>48</v>
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C239" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D239" t="n">
         <v>44</v>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -5708,13 +5708,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C240" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D240" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C241" t="n">
         <v>41</v>
@@ -5752,13 +5752,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C242" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D242" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -5775,17 +5775,17 @@
         <v>80</v>
       </c>
       <c r="C243" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D243" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C244" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D244" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -5819,17 +5819,17 @@
         <v>81</v>
       </c>
       <c r="C245" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D245" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5840,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C246" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D246" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E246" t="n">
         <v>1</v>
@@ -5860,20 +5860,20 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C247" t="n">
         <v>41</v>
       </c>
       <c r="D247" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5887,10 +5887,10 @@
         <v>81</v>
       </c>
       <c r="C248" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D248" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -5904,20 +5904,20 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C249" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D249" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -5928,13 +5928,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C250" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D250" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -5948,20 +5948,20 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C251" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D251" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C252" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D252" t="n">
         <v>46</v>
@@ -5992,20 +5992,20 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C253" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D253" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6016,13 +6016,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C254" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D254" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E254" t="n">
         <v>1</v>
@@ -6036,20 +6036,20 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C255" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D255" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6060,10 +6060,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C256" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D256" t="n">
         <v>45</v>
@@ -6080,20 +6080,20 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C257" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D257" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6104,13 +6104,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C258" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D258" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E258" t="n">
         <v>1</v>
@@ -6124,10 +6124,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C259" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D259" t="n">
         <v>44</v>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6148,13 +6148,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C260" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D260" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E260" t="n">
         <v>1</v>
@@ -6168,20 +6168,20 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C261" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D261" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6195,10 +6195,10 @@
         <v>81</v>
       </c>
       <c r="C262" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D262" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E262" t="n">
         <v>1</v>
@@ -6212,10 +6212,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C263" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D263" t="n">
         <v>44</v>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6236,13 +6236,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C264" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D264" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -6259,17 +6259,17 @@
         <v>78</v>
       </c>
       <c r="C265" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D265" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6280,13 +6280,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C266" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D266" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E266" t="n">
         <v>1</v>
@@ -6303,17 +6303,17 @@
         <v>78</v>
       </c>
       <c r="C267" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D267" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E267" t="n">
         <v>0</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6327,10 +6327,10 @@
         <v>78</v>
       </c>
       <c r="C268" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D268" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E268" t="n">
         <v>1</v>
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C269" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D269" t="n">
         <v>41</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6368,13 +6368,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C270" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D270" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
@@ -6388,20 +6388,20 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C271" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D271" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6412,13 +6412,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C272" t="n">
         <v>40</v>
       </c>
       <c r="D272" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E272" t="n">
         <v>1</v>
@@ -6435,17 +6435,17 @@
         <v>77</v>
       </c>
       <c r="C273" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D273" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6479,17 +6479,17 @@
         <v>77</v>
       </c>
       <c r="C275" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D275" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6500,13 +6500,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C276" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D276" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E276" t="n">
         <v>1</v>
@@ -6520,20 +6520,20 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C277" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D277" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6544,13 +6544,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C278" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D278" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E278" t="n">
         <v>1</v>
@@ -6564,20 +6564,20 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C279" t="n">
         <v>42</v>
       </c>
       <c r="D279" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E279" t="n">
         <v>0</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6588,13 +6588,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C280" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D280" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E280" t="n">
         <v>1</v>
@@ -6608,20 +6608,20 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C281" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D281" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E281" t="n">
         <v>0</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6632,13 +6632,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C282" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D282" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -6655,17 +6655,17 @@
         <v>79</v>
       </c>
       <c r="C283" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D283" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C284" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D284" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E284" t="n">
         <v>1</v>
@@ -6699,17 +6699,17 @@
         <v>78</v>
       </c>
       <c r="C285" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D285" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E285" t="n">
         <v>0</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C286" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D286" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E286" t="n">
         <v>1</v>
@@ -6740,13 +6740,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C287" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D287" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E287" t="n">
         <v>0</v>
@@ -6764,13 +6764,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C288" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D288" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E288" t="n">
         <v>1</v>
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C289" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D289" t="n">
         <v>44</v>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6808,13 +6808,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C290" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D290" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
@@ -6828,20 +6828,20 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C291" t="n">
         <v>40</v>
       </c>
       <c r="D291" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E291" t="n">
         <v>0</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C292" t="n">
         <v>40</v>
       </c>
       <c r="D292" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
@@ -6875,17 +6875,17 @@
         <v>80</v>
       </c>
       <c r="C293" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D293" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E293" t="n">
         <v>0</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6896,13 +6896,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C294" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D294" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
@@ -6916,20 +6916,20 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C295" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D295" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E295" t="n">
         <v>0</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have shorter length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -6940,13 +6940,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C296" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D296" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E296" t="n">
         <v>1</v>
@@ -6960,20 +6960,20 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C297" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D297" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C298" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D298" t="n">
         <v>44</v>
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C299" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D299" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7028,13 +7028,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C300" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D300" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E300" t="n">
         <v>1</v>
@@ -7048,20 +7048,20 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C301" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D301" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E301" t="n">
         <v>0</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7072,13 +7072,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C302" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D302" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -7092,20 +7092,20 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C303" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D303" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -7116,13 +7116,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C304" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D304" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E304" t="n">
         <v>1</v>
@@ -7136,20 +7136,20 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C305" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D305" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
         </is>
       </c>
     </row>
@@ -7163,10 +7163,10 @@
         <v>81</v>
       </c>
       <c r="C306" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D306" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
@@ -7180,20 +7180,20 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C307" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D307" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E307" t="n">
         <v>0</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7204,13 +7204,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C308" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D308" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E308" t="n">
         <v>1</v>
@@ -7224,10 +7224,10 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C309" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D309" t="n">
         <v>43</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have similar width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C310" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D310" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E310" t="n">
         <v>1</v>
@@ -7268,20 +7268,20 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C311" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D311" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have similar width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
         <v>81</v>
       </c>
       <c r="C312" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D312" t="n">
         <v>47</v>
@@ -7312,20 +7312,20 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C313" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D313" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7336,13 +7336,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C314" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D314" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
@@ -7356,10 +7356,10 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C315" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D315" t="n">
         <v>43</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have shorter length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C316" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D316" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E316" t="n">
         <v>1</v>
@@ -7400,20 +7400,20 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C317" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D317" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have similar width, with similar orientation.</t>
+          <t>This is a distractor. Most targets have similar length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
@@ -7424,13 +7424,13 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C318" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D318" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E318" t="n">
         <v>1</v>
@@ -7447,17 +7447,17 @@
         <v>80</v>
       </c>
       <c r="C319" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D319" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have similar length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have similar length, have similar width, oriented more horizontally.</t>
         </is>
       </c>
     </row>
@@ -7468,13 +7468,13 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C320" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D320" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -7488,20 +7488,20 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C321" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D321" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>This is a distractor. Most targets have longer length, have shorter width, more oriented vertically.</t>
+          <t>This is a distractor. Most targets have longer length, have smaller width, oriented more vertically.</t>
         </is>
       </c>
     </row>
